--- a/pred_ohlcv/54_21/2019-10-07 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-07 VALOR ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>29385.5720016814</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>47066.4996016814</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>48416.1563016814</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>42155.7043016814</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>36057.4272878883</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>40180.1491878883</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>74091.44292948137</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>72619.17532948137</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>75951.53072948137</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>84810.31402948136</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>84811.31402948136</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>85350.36122948136</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>82016.76512948137</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>86923.10062948137</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>101498.2440294814</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>164020.6637147371</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>164921.2215147371</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>159731.8685167124</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>152644.7126167124</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>149991.9888421192</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>149991.9888421192</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>154367.6127421192</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>153699.7247421192</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>145131.6595015449</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>145132.6595015449</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>145132.6595015449</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>145131.6595015449</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>145131.6595015449</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>148235.6911015449</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>149619.4158609706</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>155063.3448609706</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>151712.0785609706</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>147223.3584609706</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>147223.3584609706</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>146959.1084609706</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>145901.9490609706</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>138410.4109609706</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>141650.6979609706</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>133810.9730609706</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>132900.4198609706</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>130110.4897609706</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>24400.87395830962</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>24395.87395830962</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>24604.45095830963</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>24596.45095830963</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>24599.45095830963</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>24658.58245830963</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>23934.58315830963</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>23935.58315830963</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>31884.79925830963</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>31885.79925830963</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>28254.24965830963</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>25391.36245830963</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>24864.43825830963</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>31205.22966374597</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>30806.73666374597</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>29350.70926374597</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>26708.44906374597</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-07 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-07 VALOR ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>29385.5720016814</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>47066.4996016814</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>48416.1563016814</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>42155.7043016814</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>33875.6608016814</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>40180.1491878883</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>74091.44292948137</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>72619.17532948137</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>75951.53072948137</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>84810.31402948136</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>84811.31402948136</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>85350.36122948136</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>82016.76512948137</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>86923.10062948137</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>101498.2440294814</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>210329.2230147371</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>164020.6637147371</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>164921.2215147371</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>159731.8685167124</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>152644.7126167124</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>149991.9888421192</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>149991.9888421192</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>154367.6127421192</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>153699.7247421192</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>145131.6595015449</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>145132.6595015449</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>145132.6595015449</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>145131.6595015449</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>145131.6595015449</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>148235.6911015449</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>149619.4158609706</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>149619.4158609706</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>151712.0785609706</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>147223.3584609706</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>147223.3584609706</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>146959.1084609706</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>145901.9490609706</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>142064.0407609706</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>138410.4109609706</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>143117.6287609706</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>24400.87395830962</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>24395.87395830962</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>24604.45095830963</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>24596.45095830963</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>24599.45095830963</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>24658.58245830963</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>23934.58315830963</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>23935.58315830963</v>
       </c>
       <c r="H616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>31884.79925830963</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>31885.79925830963</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>28254.24965830963</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>25391.36245830963</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>24864.43825830963</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>31205.22966374597</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>30806.73666374597</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>29350.70926374597</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>26708.44906374597</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
